--- a/src/main/resources/templates/reportTemplate.xlsx
+++ b/src/main/resources/templates/reportTemplate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\实验室\毕设\LabSystem\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dinpper\Desktop\oa\OA\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9404F1FB-385A-48FC-BCEC-287BC60B71DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3222B8FC-0483-4ACE-BC31-32F1645A7569}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18975" yWindow="3975" windowWidth="17280" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5055" yWindow="4980" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,10 +35,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{.name}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{.reportDate}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>{.workContent}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{.userName}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,57 +406,57 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.77734375" customWidth="1"/>
-    <col min="5" max="5" width="26.21875" customWidth="1"/>
-    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="1" max="1" width="9.625" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="32.75" customWidth="1"/>
+    <col min="5" max="5" width="26.25" customWidth="1"/>
+    <col min="6" max="6" width="32.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
